--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81807\Desktop\Kaggle\GCI②(NFL Draft Prediction)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C53699-C6B5-4792-AD06-C38BA7E50768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD47BB6-6575-43DF-BE93-2D0EBFD79F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11436" yWindow="0" windowWidth="11700" windowHeight="13056" xr2:uid="{7DDB35A0-0533-4A4E-9647-739A7DAD07CF}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11616" windowHeight="12960" xr2:uid="{7DDB35A0-0533-4A4E-9647-739A7DAD07CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="180" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,11 +116,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47062CF-E3A9-4CB1-989B-C38D1EB52AB1}">
   <dimension ref="C3:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="C3:H13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -525,7 +535,7 @@
         <v>0.79803999999999997</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H11" si="1">E5-G5</f>
+        <f t="shared" ref="H5:H12" si="1">E5-G5</f>
         <v>1.8560000000000021E-2</v>
       </c>
     </row>
@@ -649,7 +659,7 @@
       <c r="E11">
         <v>0.85129999999999995</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
@@ -674,6 +684,13 @@
       <c r="F12">
         <f t="shared" si="0"/>
         <v>9.0799999999999992E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1600000000000072E-2</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.45">
